--- a/files/HW1/RUS_DATA.xlsx
+++ b/files/HW1/RUS_DATA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enes Üstün\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enes Üstün\Documents\GitHub\spring21-muhammetenesustun-1\files\HW1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268269D6-70E8-4986-AC4E-50E28143BEC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76F1D8C-088B-4BED-A7C7-1AF93DAADA3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EVDS" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Month</t>
   </si>
@@ -37,7 +37,10 @@
     <t>RUB_TL</t>
   </si>
   <si>
-    <t>AvgDailySearch</t>
+    <t>DollarSearch</t>
+  </si>
+  <si>
+    <t>AntalyaSearch</t>
   </si>
 </sst>
 </file>
@@ -389,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,9 +403,10 @@
     <col min="2" max="2" width="14.42578125" style="4" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -419,10 +423,13 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>36</v>
       </c>
@@ -441,8 +448,11 @@
       <c r="F2">
         <v>33.200000000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>35</v>
       </c>
@@ -461,8 +471,11 @@
       <c r="F3">
         <v>38.75</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>34</v>
       </c>
@@ -481,8 +494,11 @@
       <c r="F4">
         <v>35.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>33</v>
       </c>
@@ -501,8 +517,11 @@
       <c r="F5">
         <v>45.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32</v>
       </c>
@@ -521,8 +540,11 @@
       <c r="F6">
         <v>87.75</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>31</v>
       </c>
@@ -541,8 +563,11 @@
       <c r="F7">
         <v>83.75</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>30</v>
       </c>
@@ -561,8 +586,11 @@
       <c r="F8">
         <v>79.400000000000006</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>29</v>
       </c>
@@ -581,8 +609,11 @@
       <c r="F9">
         <v>59.75</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>28</v>
       </c>
@@ -601,8 +632,11 @@
       <c r="F10">
         <v>59.75</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>27</v>
       </c>
@@ -621,8 +655,11 @@
       <c r="F11">
         <v>51.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>26</v>
       </c>
@@ -641,8 +678,11 @@
       <c r="F12">
         <v>39.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>25</v>
       </c>
@@ -661,8 +701,11 @@
       <c r="F13">
         <v>48.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>24</v>
       </c>
@@ -681,8 +724,11 @@
       <c r="F14">
         <v>23.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>23</v>
       </c>
@@ -701,8 +747,11 @@
       <c r="F15">
         <v>25.25</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>22</v>
       </c>
@@ -721,8 +770,11 @@
       <c r="F16">
         <v>42.25</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>21</v>
       </c>
@@ -741,8 +793,11 @@
       <c r="F17">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>20</v>
       </c>
@@ -761,8 +816,11 @@
       <c r="F18">
         <v>73.25</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -781,8 +839,11 @@
       <c r="F19">
         <v>61.6</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -801,8 +862,11 @@
       <c r="F20">
         <v>64.25</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
@@ -821,8 +885,11 @@
       <c r="F21">
         <v>44.25</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
@@ -841,8 +908,11 @@
       <c r="F22">
         <v>44.8</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>15</v>
       </c>
@@ -861,8 +931,11 @@
       <c r="F23">
         <v>33.25</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>14</v>
       </c>
@@ -881,8 +954,11 @@
       <c r="F24">
         <v>34.25</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>13</v>
       </c>
@@ -901,8 +977,11 @@
       <c r="F25">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>12</v>
       </c>
@@ -921,8 +1000,11 @@
       <c r="F26">
         <v>21.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>11</v>
       </c>
@@ -941,8 +1023,11 @@
       <c r="F27">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10</v>
       </c>
@@ -961,8 +1046,11 @@
       <c r="F28">
         <v>21.2</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>9</v>
       </c>
@@ -981,8 +1069,11 @@
       <c r="F29">
         <v>42.25</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>8</v>
       </c>
@@ -1001,8 +1092,11 @@
       <c r="F30">
         <v>63</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>7</v>
       </c>
@@ -1021,8 +1115,11 @@
       <c r="F31">
         <v>60.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>6</v>
       </c>
@@ -1041,8 +1138,11 @@
       <c r="F32">
         <v>51</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5</v>
       </c>
@@ -1061,8 +1161,11 @@
       <c r="F33">
         <v>50.25</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
@@ -1081,8 +1184,11 @@
       <c r="F34">
         <v>34.799999999999997</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -1101,8 +1207,11 @@
       <c r="F35">
         <v>33.25</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
@@ -1121,8 +1230,11 @@
       <c r="F36">
         <v>25.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -1141,32 +1253,35 @@
       <c r="F37">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B41"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B42"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B43"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B44"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B45"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B46"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B47"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B48"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
